--- a/backend/downloads/users_export.xlsx
+++ b/backend/downloads/users_export.xlsx
@@ -544,7 +544,7 @@
         <v>Account</v>
       </c>
       <c r="F2" t="str">
-        <v>Desktop</v>
+        <v>Printer</v>
       </c>
       <c r="G2" t="str">
         <v>195.168.1.10</v>
